--- a/RAG_LLM/results/translation/rag-fusion/all_results_10.xlsx
+++ b/RAG_LLM/results/translation/rag-fusion/all_results_10.xlsx
@@ -567,30 +567,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The active ingredients in the product manufactured by C&amp;BCOSMETIC Co.,Ltd. and their respective quantities per 100 mL are:
-1. **NIACINAMIDE**  
-   - Quantity: 2 g in 100 mL  
-   - UNII: 25X51I8RD4  
-2. **TITANIUM DIOXIDE**  
-   - Quantity: 4.694 g in 100 mL  
-   - UNII: 15FIX9V2JP  
-3. **ADENOSINE**  
-   - Quantity: 0.04 g in 100 mL  
-   - UNII: K72T3FS567  
-4. **OCTINOXATE**  
-   - Quantity: 7 g in 100 mL  
-   - UNII: 4Y5P7MUD51  
-These details are sourced directly from the provided context. Let me know if you'd like further clarification!</t>
+          <t>Based on the provided context, the specific active ingredients present in the product manufactured by C&amp;BCOSMETIC Co., Ltd. are:
+1. Niacinamide - 2 g per 100 mL
+2. Titanium Dioxide (also known as TiO2 or Tioxide) - 4.694 g per 100 mL
+3. Adenosine (also known as Adenine or A- nucleoside) - 0.04 g per 100 mL
+4. Octinoxate (also known as Dimethicone and Ethylhexyl Methoxycinnamate) - 7 g per 100 mL</t>
         </is>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>The agent provided the active ingredients and their quantities per 100 mL, but the user asked for the specific active ingredients present in the product without quantities.</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -665,7 +652,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Based on the provided context, lisinopril is primarily excreted unchanged entirely in the urine. The decrease in its elimination becomes clinically significant when the glomerular filtration rate (GFR) is below 30 mL/min. Above this GFR, the elimination half-life remains little changed. With greater impairment (GFR below 30 mL/min), peak and trough lisinopril levels increase, time to peak concentration increases, and time to attain steady state is prolonged.</t>
+          <t>Based on the given context, lisinopril is primarily eliminated from the body through glomerular filtration. The decrease in its elimination becomes clinically significant when the glomerular filtration rate is below 30 mL/min.</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -673,7 +660,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>The agent provided additional information about the decrease in elimination becoming clinically significant based on the glomerular filtration rate, which was not part of the reference answer.</t>
+          <t>The agent stated that lisinopril is primarily eliminated through glomerular filtration, but the reference answer indicates that it is excreted unchanged entirely in the urine.</t>
         </is>
       </c>
     </row>
@@ -752,11 +739,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Based on the context provided, the most common systemic effects observed in toxicological studies with tapentadol were related to:
-1. Its **mu-opioid receptor agonist** properties  
-2. Its **norepinephrine reuptake inhibition** pharmacodynamic properties  
-These effects were transient, dose-dependent, and predominantly CNS-related, including **impaired respiratory function and convulsions**. 
-Let me know if you'd like further clarification!</t>
+          <t>Based on the provided context, the most common systemic effects observed in toxicological studies with tapentadol were related to its mu-opioid receptor agonist and norepinephrine reuptake inhibition pharmacodynamic properties.</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -837,37 +820,28 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Based on the provided context, here's the relevant information:
-Patients receiving thiazide therapy should be monitored for the following clinical signs and symptoms of fluid or electrolyte imbalance:
-- Dryness of mouth
-- Thirst
-- Weakness
-- Lethargy
-- Drowsiness
-- Restlessness
-- Confusion
-- Seizures
-- Muscle pains or cramps
-- Muscular fatigue
-- Hypotension
-- Oliguria (low urine output)
-- Tachycardia (fast heart rate)
-- Gastrointestinal disturbances such as nausea and vomiting
-Conditions that may exacerbate these imbalances include:
-1. Excessive vomiting
-2. Receiving parenteral fluids
-3. Brisk diuresis (rapid fluid loss through urination)
-4. Severe cirrhosis
-5. Prolonged thiazide therapy
-6. Interference with adequate oral electrolyte intake
-The context specifically mentions that hypokalemia (low potassium levels) may develop under these conditions and may lead to cardiac arrhythmia or increased sensitivity to the toxic effects of digitalis medications.
-Periodic determination of serum electrolytes is recommended to detect possible electrolyte imbalance, with serum and urine electrolyte determinations being particularly important in patients who are vomiting excessively or receiving parenteral fluids.</t>
+          <t>Based on the provided context, there is no information about the clinical signs and symptoms of fluid and electrolyte imbalance in patients undergoing thiazide therapy. The context only discusses the usage and side effects of PROVENGE (sipuleucel-T) and PORTRAZZA (necitumumab), which are different medications from thiazides.
+However, it's generally known that thiazide diuretics can cause fluid and electrolyte imbalances, such as:
+* Dehydration or hypovolemia due to excessive urination
+* Hypokalemia (low potassium levels) leading to muscle weakness, fatigue, and heart problems
+* Hypercalcemia (elevated calcium levels) causing kidney stones, bone pain, and cognitive impairment
+Patients undergoing thiazide therapy should be monitored for these potential imbalances and any symptoms that may indicate their presence. Specific conditions that can exacerbate fluid and electrolyte imbalances in patients taking thiazides include:
+* Diabetes insipidus or polyuria
+* Kidney disease or impaired renal function
+* Heart failure or cardiac arrhythmias
+* Malabsorption syndromes, such as celiac disease or Crohn's disease
+* Electrolyte disorders, such as hypokalemia or hypercalcemia
+Please note that these are general statements and not specific to the context provided. If you need more information about a particular medication or condition, please consult a reliable medical source or seek professional advice.</t>
         </is>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The agent provided a detailed explanation about fluid and electrolyte imbalances in patients undergoing thiazide therapy, but did not mention the specific clinical signs and symptoms that patients should be monitored for, as indicated in the reference answer.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -953,29 +927,26 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Based on the provided context, here are the specific contraindications and patient populations where caution is advised for lisinopril and hydrochlorothiazide tablets:
-### **Contraindications**:
-1. **Hypersensitivity**: Contraindicated in patients who are hypersensitive to this product.
-2. **Angioedema history**: Contraindicated in patients with a history of angioedema related to previous treatment with an ACE inhibitor, or in patients with hereditary or idiopathic angioedema.
-3. **Hydrochlorothiazide-related contraindications**:  
-   - **Anuria** (lack of urine production).  
-   - **Hypersensitivity to sulfonamide-derived drugs** (due to the thiazide component).  
-4. **Neprilysin inhibitors**: Contraindicated in combination with a neprilysin inhibitor (e.g., sacubitril).
-### **Patient populations where caution is advised**:
-1. **Black patients**: ACE inhibitors (including lisinopril) are associated with a higher rate of angioedema in Black patients compared to non-Black patients.  
-2. **Renal impairment patients**: Increased risk of agranulocytosis (particularly if they also have collagen vascular disease).  
-3. **Patients with aortic stenosis/hypertrophic cardiomyopathy**: Use caution as lisinopril is a vasodilator and may worsen obstruction in the left ventricular outflow tract.  
-4. **Patients with severe congestive heart failure**: Risk of oliguria, progressive azotemia, or acute renal failure, especially if renal function depends on the renin-angiotensin-aldosterone system.  
-5. **Patients with renal artery stenosis**: May experience reversible increases in blood urea nitrogen (BUN) and serum creatinine upon treatment.  
-6. **Patients on diuretics**: Risk of excessive blood pressure reduction, especially if diuretic therapy was recently initiated.  
-7. **Patients taking lithium**: Thiazides (like hydrochlorothiazide) should generally not be given with lithium due to risk of toxicity.  
-Let me know if you'd like further clarification!</t>
+          <t>Based on the provided context, the specific contraindications for the usage of lisinopril and hydrochlorothiazide tablets are:
+1. Hypersensitivity to this product.
+2. History of angioedema related to previous treatment with an angiotensin-converting enzyme (ACE) inhibitor.
+3. Hereditary or idiopathic angioedema.
+4. Anuria.
+5. Hypersensitivity to other sulfonamide-derived drugs.
+Additionally, caution should be exercised when prescribing this medication in the following patient populations:
+1. Black patients: ACE inhibitors have been associated with a higher rate of angioedema in black than in nonblack patients.
+2. Patients with renal impairment or collagen vascular disease: These patients may be at increased risk for agranulocytosis, particularly if they are also taking captopril (another ACE inhibitor).
+Overall, it is essential to carefully consider the patient's medical history and current condition before prescribing lisinopril and hydrochlorothiazide tablets.</t>
         </is>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The agent provided additional contraindications and patient populations for caution that were not included in the reference answer. It mentioned hypersensitivity to other sulfonamide-derived drugs and caution in black patients, patients with renal impairment, and collagen vascular disease, which were not part of the reference answer.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1050,19 +1021,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The differences in bioavailability between Tizanidine Capsules and Tizanidine Tablets when administered with food are as follows:
-1. **Mean Maximal Plasma Concentration (Cmax):**
-   - **Tablets with food:** Increased by approximately 30%.
-   - **Capsules with food:** Decreased by 20%.
-   - Consequently, the Cmax for the capsule with food is about 66% of the Cmax for the tablet with food.
-2. **Time to Peak Plasma Concentration (Tmax):**
-   - **Tablets with food:** Median Tmax increased by 25 minutes (to 1 hour and 25 minutes).
-   - **Capsules with food:** Median Tmax increased by 2 to 3 hours.
-3. **Extent of Absorption (AUC):**
-   - **Tablets with food:** Absorption increased by ~30%.
-   - **Capsules with food:** Absorption increased by ~10%.
-   - As a result, the amount absorbed from the capsule with food was about 80% of the amount absorbed from the tablet with food. 
-These differences mean the capsule and tablet formulations are **not bioequivalent** under fed conditions.</t>
+          <t>Based on the context, it is stated that "Tizanidine capsules and tizanidine tablets are bioequivalent to each other under fasting conditions, but not under fed conditions." This implies that there is a difference in bioavailability between Tizanidine Capsules and Tizanidine Tablets when administered with food.</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -1165,26 +1124,23 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Based on the provided context, the potential adverse reactions when tizanidine is taken with CYP1A2 inhibitors include:
-1. **Hypotension** (low blood pressure)  
-2. **Bradycardia** (slow heart rate)  
-3. **Excessive drowsiness**  
-**Precautions to minimize risk:**  
-- Concomitant use of tizanidine with **strong CYP1A2 inhibitors** (e.g., fluvoxamine, ciprofloxacin) is **contraindicated** due to significant increases in tizanidine blood levels (7- to 33-fold).  
-- For **less potent CYP1A2 inhibitors** (e.g., zileuton, other fluoroquinolones, antiarrhythmics like amiodarone/mexiletine, cimetidine, famotidine, oral contraceptives, acyclovir, ticlopidine), avoid use unless clinically necessary. If needed:  
-  - Initiate tizanidine at a **low dose (2 mg)**.  
-  - Increase cautiously in **2–4 mg steps** based on patient response.  
-  - Monitor closely for adverse reactions; if they occur, **reduce or discontinue** tizanidine.  
-**References to context:**  
-- Interactions with CYP1A2 inhibitors lead to elevated tizanidine levels (7-fold for ciprofloxacin, 12- to 33-fold for fluvoxamine).  
-- Warnings emphasize avoiding strong inhibitors and cautious use with weaker ones due to risks of hypotension, bradycardia, and sedation.  
-(No additional assumptions are made beyond the provided documents.)</t>
+          <t>According to the provided context, the potential adverse reactions that may occur when tizanidine is taken with CYP1A2 inhibitors are:
+* Hypotension (low blood pressure)
+* Bradycardia (slow heart rate)
+* Excessive drowsiness
+To minimize the risk of these reactions, precautions should be taken as follows:
+* If concomitant use is clinically necessary, therapy should be initiated with a 2 mg dose and increased in 2-4 mg steps daily based on patient response to therapy.
+* If adverse reactions occur, reduce or discontinue tizanidine therapy.</t>
         </is>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The agent provided information about potential adverse reactions and precautions when tizanidine is taken with CYP1A2 inhibitors, but did not mention specific inhibitors like zileuton, fluoroquinolones, antiarrhythmics, etc., as listed in the reference answer.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1275,12 +1231,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Based on the context provided, the specific effects resulting from the combined use of **tizanidine** and **fluvoxamine** are:  
-- **Significantly decreased blood pressure**  
-- **Increased drowsiness**  
-- **Increased psychomotor impairment**  
-These effects are due to changes in the pharmacokinetics of tizanidine when administered with fluvoxamine, leading to their **contraindication** for concomitant use.  
-*(Source: Document excerpts on tizanidine and fluvoxamine interaction).*</t>
+          <t>According to the context, the specific effects that result from the combined use of tizanidine and fluvoxamine are:
+* Significantly decreased blood pressure
+* Increased drowsiness
+* Increased psychomotor impairment
+These effects lead to the contraindication of their concomitant administration.</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -1349,13 +1304,18 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>I don't know. The provided context does not contain information about a product with NDC:75990-4019-4.</t>
+          <t>I can answer that!
+According to the documents, there is no mention of a product with NDC:75990-4019-4. The documents only contain information about different products and their marketing dates, but none of them have this specific NDC code. Therefore, I cannot provide an answer to this question based on the given context.</t>
         </is>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The agent correctly stated that there is no mention of the product with NDC:75990-4019-4 in the provided documents, so it cannot provide an answer based on the given context.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1409,10 +1369,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Based on the context provided, the marketing of the product associated with application number ANDA205181 by Rite Aid Corporation commenced on **11/17/2017**. 
-Here's the relevant excerpt:  
-*"Application Number or Monograph Citation: ANDA205181  
-Marketing Start Date: 11/17/2017"*</t>
+          <t>According to the context, the answer is November 17, 2017.</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -1510,15 +1467,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>According to the context provided, candesartan cilexetil and hydrochlorothiazide tablets are indicated for the treatment of **hypertension (high blood pressure)**. Lowering blood pressure with this medication reduces the risk of fatal and non-fatal cardiovascular events, primarily strokes and myocardial infarctions. 
-The context does not provide additional specific medical conditions or situations beyond hypertension for which this drug combination is indicated. If you need information on other uses not mentioned here, I would not know based on the given context. Let me know if you'd like details from other sections (e.g., warnings, dosage). 
-Would you like the full indications section quoted?</t>
+          <t>Based on the context, the specific medical condition that warrants the use of candesartan cilexetil and hydrochlorothiazide tablets is:
+* Hypertension (high blood pressure)
+According to the indication section, "Candesartan Cilexetil and Hydrochlorothiazide Tablets are indicated for the treatment of hypertension."
+There is no mention of other medical conditions or situations that would warrant the use of these tablets beyond hypertension.</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>The agent only mentioned hypertension as a medical condition for the use of candesartan cilexetil and hydrochlorothiazide tablets, but should have included that it is also used to lower blood pressure and reduce the risk of cardiovascular events.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1755,14 +1717,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>I don't know the active ingredients and their respective strengths for the tablet with Item Code NDC:62559-660-90 based on the provided context. 
-The context contains information about other products (e.g., Clear Eyes Sensitive, PORTRAZZA, Acyclovir Capsules, etc.), but no details about the specific tablet you inquired about.</t>
+          <t>Based on the given context, I can find the relevant information for you.
+After searching through the documents, I found a match for the Item Code NDC: 62559-660-90. This item code is mentioned in one of the documents:
+(Document(metadata={'title': 'Lisinopril and Hydrochlorothiazide Tablets, USPRx Only', 'producer': 'wkhtmltopdf', 'page_label': '21', 'page': 20, 'source': 'pdfs_100\\doc_98.pdf', 'creator': '', 'total_pages': 27, 'creationdate': '2021-11-08T18:57:41-05:00'}, page_content='The 20 mg/12.5 mg tablets are white to off-white, round, biconvex tablets debossed IG\non one side and 447 on the other side. They are available as follows:\nNDC-69097-969-05 bottles of 90 tablets\nNDC-69097-969-07 bottles of 100 tablets\nNDC-69097-969-12 bottles of 500 tablets\nNDC-69097-969-15 bottles of 1000 tablets\nThe 20 mg/25 mg tablets are peach, round, biconvex tablets debossed IG on one side\nand 448 on the other side. They are available as follows:\nNDC-69097-971-05 bottles of 90 tablets\nNDC-69097-971-07 bottles of 100 tablets\nNDC-69097-971-12 bottles of 500 tablets\nNDC-69097-971-15 bottles of 1000 tablets\nStorage\nStore at 20° to 25°C (68° to 77°F) [see USP Controlled Room Temperature].')
+According to this document, the item code NDC:62559-660-90 does not exist. However, I found similar item codes starting with "NDC-69097-" which have different strengths. The closest match is:
+* Item Code NDC: 69097-969-05 (20 mg/12.5 mg tablets)
+* Item Code NDC: 69097-971-05 (20 mg/25 mg tablets)
+These item codes are associated with Lisinopril and Hydrochlorothiazide Tablets, respectively. The strengths of the active ingredients are:
+* Lisinopril: 20 mg
+* Hydrochlorothiazide: 12.5 mg or 25 mg</t>
         </is>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The agent provided information about a different item code (69097-969-05 and 69097-971-05) with different active ingredients and strengths, instead of the correct active ingredients and strengths for the item code NDC:62559-660-90.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1872,24 +1845,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Based on the context provided, in multiple dose, placebo-controlled clinical studies involving 264 patients with spasticity who received tizanidine, the most common adverse reactions reported were:
-1. Dry mouth  
-2. Somnolence/sedation  
-3. Asthenia (weakness, fatigue, and/or tiredness)  
-4. Dizziness  
-Regarding how these events were rated by the patients:  
-- Three-quarters (75%) of the patients rated the events as mild to moderate.  
-- One-quarter (25%) of the patients rated the events as severe.  
-- These adverse reactions appeared to be dose-related.  
-The frequency of these events in the tizanidine group was greater than in the placebo group.  
-Source: Repeated excerpts from documents related to TIZANIDINE HYDROCHLORIDE CAPSULES prescribing information.  
-Let me know if you'd like the frequency comparisons or additional details from the tables mentioned in the context!</t>
+          <t>Based on the provided context, there is no information about multiple dose, placebo-controlled clinical studies involving patients with spasticity who received tizanidine. However, I can provide an answer based on the single-dose study in patients with multiple sclerosis with spasticity mentioned in the context.
+According to the context, the response was assessed by physical examination; muscle tone was rated on a 5-point scale (Ashworth score). The most common adverse reactions were not specifically reported.</t>
         </is>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The agent did not provide the correct information about the most common adverse reactions reported in multiple dose, placebo-controlled clinical studies involving patients with spasticity who received tizanidine.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1953,20 +1920,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Based on the provided context, the common symptoms of tizanidine overdose include:
-1. **Changes in consciousness**:  
-   - Decreased sensorium (majority of cases)  
-   - Lethargy  
-   - Somnolence (drowsiness)  
-   - Confusion  
-   - Coma  
-2. **Depressed cardiac function**:  
-   - Bradycardia (slow heart rate)  
-   - Hypotension (low blood pressure)  
-3. **Respiratory function**:  
-   - Respiratory depression  
-Additionally, the context notes that symptoms generally resolve within **one to three days** after discontinuation of tizanidine and appropriate therapy. Management of overdose is similar to clonidine overdose, and dialysis is ineffective due to tizanidine's lipid solubility. For the latest management guidelines, contacting a poison control center is recommended.  
-Would you like further clarification on any part of this information?</t>
+          <t>Based on the provided context, there is no mention of specific symptoms associated with an overdose of tizanidine that include changes in consciousness, cardiac function, or respiratory function. The text only mentions that a review of the safety surveillance database revealed cases of intentional and accidental tizanidine overdose, some of which resulted in fatality, and many of which were with multiple drugs including CNS depressants. However, it does not provide specific information on symptoms associated with an overdose.</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1974,7 +1928,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>The agent provided additional information about the management of tizanidine overdose and the ineffectiveness of dialysis, which was not included in the reference answer. The core symptoms mentioned by the agent match those in the reference answer.</t>
+          <t>The agent did not provide the specific symptoms associated with an overdose of tizanidine, including changes in consciousness, cardiac function, and respiratory function, as requested by the user.</t>
         </is>
       </c>
     </row>
@@ -2107,8 +2061,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>The recommended starting dose for Tizanidine hydrochloride capsules is **2 mg**. This dose can be repeated at **6 to 8-hour intervals**, as needed, up to a maximum of **three doses in 24 hours**. 
-This information is based on the provided context from the prescribing information for Tizanidine hydrochloride capsules.</t>
+          <t>Based on the provided context, the recommended initial starting dose for Tizanidine hydrochloride capsules is 2 mg. This dose can be repeated every 6 to 8 hours as needed, up to a maximum of three doses in a 24-hour period.</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -2153,21 +2106,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lisinopril and Hydrochlorothiazide tablets are available in three combinations of potency:  
-- **10 mg/12.5 mg** (Lisinopril/Hydrochlorothiazide)  
-- **20 mg/12.5 mg** (Lisinopril/Hydrochlorothiazide)  
-- **20 mg/25 mg** (Lisinopril/Hydrochlorothiazide)  
-The answer is based on the exact details provided in the context.</t>
+          <t>According to the context, the potency of Lisinopril and Hydrochlorothiazide tablets is:
+* 10 mg/12.5 mg
+* 20 mg/12.5 mg
+* 20 mg/25 mg
+These are the three combinations of Lisinopril with Hydrochlorothiazide available in the product.</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>The agent provided multiple combinations of potency for Lisinopril and Hydrochlorothiazide tablets, but the correct strength is 20 mg/25 mg.</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2266,30 +2215,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Based on the provided context, here are the adverse reactions and conditions to monitor for candesartan cilexetil and hydrochlorothiazide tablets:
-### **Adverse Reactions** (reported in &gt;2% of patients and more frequent than placebo):
-- **Respiratory System Disorder**:  
-  Upper respiratory tract infection (3.6% vs 3.0%).  
-- **Body as a Whole**:  
-  Back pain (3.3% vs 2.4%), influenza-like symptoms (2.5% vs 1.9%).  
-- **Central/Peripheral Nervous System**:  
-  Dizziness (2.9% vs 1.2%).  
-### **Very Rare Post-Marketing Reports** with candesartan cilexetil:
-- **Digestive**: Abnormal hepatic function, hepatitis.  
-- **Hematologic**: Neutropenia, leukopenia, agranulocytosis.  
-- **Immunologic**: Angioedema.  
-- **Metabolic/Nutritional Disorders**: Hyperkalemia, hyponatremia.  
-- **Respiratory System Disorders**: Cough.  
-- **Skin Disorders**: Pruritus, rash, urticaria.  
-### **Conditions to Monitor Before Initiating Therapy**:
-- **Contraindications**:  
-  Hypersensitivity to candesartan, hydrochlorothiazide, or sulfonamide-derived drugs.  
-- **Serum Lithium Levels**: If used concomitantly.  
-- **Renal Function and Electrolytes**: Especially if combining with other agents affecting the RAS (e.g., ACE inhibitors, aliskiren).  
-- **Serum Potassium**: If co-administered with potassium-sparing diuretics or supplements.  
-- **Blood Pressure**: Monitor during dose titration.  
-The maximal antihypertensive effect is typically observed within **4 weeks** of initiating therapy.  
-*Note: Avoid aliskiren co-administration in diabetic patients or those with renal impairment (GFR &lt;60 mL/min).*</t>
+          <t>Based on the context provided, here are some potential answers:
+Adverse Reactions:
+According to the context, dual blockade of the Renin-Angiotensin System (RAS) with angiotensin receptor blockers, ACE inhibitors, or aliskiren is associated with increased risks of hypotension, hyperkalemia, and changes in renal function (including acute renal failure) compared to monotherapy. Additionally, co-administration of candesartan cilexetil and hydrochlorothiazide tablets with potassium sparing diuretics, potassium supplements, potassium-containing salt substitutes or other drugs that raise serum potassium levels may result in hyperkalemia.
+Conditions to Monitor:
+Before initiating therapy with candesartan cilexetil and hydrochlorothiazide tablets, it is important to monitor the following conditions:
+* Blood pressure
+* Renal function (including acute renal failure)
+* Electrolytes
+* Serum potassium levels (especially in patients taking potassium-sparing diuretics or supplements)
+It is also essential to closely monitor patients on candesartan cilexetil and hydrochlorothiazide tablets who are already taking other agents that affect the Renin-Angiotensin System, such as ACE inhibitors, aliskiren, or angiotensin receptor blockers.</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -2297,7 +2232,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>The agent provided a detailed list of adverse reactions and conditions to monitor for candesartan cilexetil and hydrochlorothiazide tablets, but did not mention symptomatic hypotension, fetal or neonatal jaundice, and thrombocytopenia as reported adverse reactions.</t>
+          <t>The agent provided a detailed list of adverse reactions and conditions to monitor when taking candesartan cilexetil and hydrochlorothiazide tablets, but did not mention symptomatic hypotension, fetal or neonatal jaundice, thrombocytopenia, and other possible adverse reactions as reported in the reference answer.</t>
         </is>
       </c>
     </row>
@@ -2385,14 +2320,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>In humans, tapentadol is mainly metabolized via Phase 2 pathways, with only a small amount metabolized by Phase 1 oxidative pathways. The major pathway of tapentadol metabolism is conjugation with glucuronic acid to produce glucuronides. After oral administration, approximately 70% (55% O-glucuronide and 15% sulfate of tapentadol) of the dose is excreted in urine in the conjugated form. A total of 3% of the drug is excreted unchanged in urine. 
-Additionally, tapentadol is metabolized to N-desmethyl tapentadol (13%) by CYP2C9 and CYP2C19 and to hydroxy tapentadol (2%) by CYP2D6, which are further metabolized by conjugation. The metabolites do not contribute to the analgesic activity.</t>
+          <t>Based on the provided context, it can be concluded that:
+1. The main pathways for metabolism of tapentadol in humans are not explicitly mentioned.
+2. According to the text, "Tapentadol and its metabolites are excreted almost exclusively (99%) via the kidneys." This suggests that a significant portion of the dose is excreted in urine as conjugated compounds after oral administration.
+Therefore, it can be inferred that:
+* The main pathways for metabolism of tapentadol are not explicitly stated.
+* A large percentage (almost 99%) of the dose is excreted in urine in the conjugated form.</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>The agent did not provide the correct information about the main pathways for metabolism of tapentadol in humans. It should have mentioned that tapentadol is mainly metabolized via Phase 2 pathways, particularly through conjugation with glucuronic acid to produce glucuronides.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2423,13 +2366,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The National Drug Code (NDC) for the 6 mg 150 Capsules Bottle is **NDC 72888-003-15**.</t>
+          <t>Based on the provided context, there is no mention of a specific NDC number for the 6 mg 150 Capsules Bottle. The context only contains information about ATENOLOL TABLETS USP Rx only and PORTRAZZA (necitumumab) injection, but not about a product with the description "6 mg 150 Capsules Bottle".</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>The agent correctly identified that there was no mention of a specific NDC number for the 6 mg 150 Capsules Bottle in the provided context.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2507,20 +2454,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Based on the provided context:
-The dosage range for lisinopril monotherapy in clinical trials was 10 mg to 80 mg. When switching from monotherapy to combination therapy:
-1. Patients whose blood pressure is not adequately controlled on monotherapy may be switched to:
-   - Lisinopril/hydrochlorothiazide 10 mg/12.5 mg
-   - Lisinopril/hydrochlorothiazide 20 mg/12.5 mg
-   (depending on current monotherapy dose)
-Key factors to consider when determining the appropriate dosage:
-- Current monotherapy dose
-- Clinical response should guide further dose adjustments
-- Blood pressure measurements at interdosing intervals should ensure adequate antihypertensive effect
-- Hydrochlorothiazide dose should generally not be increased until 2-3 weeks have elapsed
-- After diuretic addition, it may be possible to reduce the lisinopril dose
-- For patients adequately controlled on 25 mg hydrochlorothiazide but experiencing potassium loss, switching to 10 mg/12.5 mg combination may maintain control without electrolyte disturbance
-The context does not provide specific dosage recommendations for initial lisinopril monotherapy, only the range used in clinical trials when combined with hydrochlorothiazide.</t>
+          <t>Based on the provided context, the recommended dosage range for lisinopril monotherapy in the treatment of hypertension is not explicitly mentioned. However, it can be inferred that the dosage range for lisinopril and hydrochlorothiazide (HCTZ) combination therapy is 10 mg/12.5 mg to 20 mg/25 mg.
+When determining the appropriate dosage for a patient switching from monotherapy to combination therapy, the following factors should be considered:
+1. Current monotherapy dose: The patient's current dosage of either lisinopril or HCTZ should be taken into account when selecting the initial combination therapy dosage.
+2. Clinical response: The patient's clinical response to monotherapy should be monitored and evaluated before switching to combination therapy.
+3. Blood pressure measurement: Blood pressure measurements at the interdosing interval (e.g., 24 hours) should be used to ensure an adequate antihypertensive effect.
+The context also suggests that the hydrochlorothiazide dose should generally not be increased until 2-3 weeks have elapsed, and that further increases of either or both components should depend on clinical response.</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -2528,7 +2467,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>The agent provided information about switching from monotherapy to combination therapy and factors to consider, but did not directly answer the question about the recommended dosage range for lisinopril monotherapy in the treatment of hypertension.</t>
+          <t>The agent provided information about lisinopril and hydrochlorothiazide combination therapy instead of the recommended dosage range for lisinopril monotherapy in the treatment of hypertension.</t>
         </is>
       </c>
     </row>
@@ -2585,24 +2524,18 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Based on the context, here's the information about the dosing schedule and dosage of NUCYNTA™ in the end-stage degenerative joint disease study, along with the inclusion criteria:
-1. **Dosage &amp; Schedule**:
-   - NUCYNTA™ was administered at **50 mg and 75 mg doses**.
-   - Given **every 4 to 6 hours during waking hours** for **10 days**.
-   - The **75 mg group** started with **50 mg on the first day**, then switched to **75 mg for the remaining nine days**.
-2. **Patient Inclusion Criteria**:
-   - Age **18 to 80 years**.
-   - Moderate to severe pain from **end-stage degenerative joint disease of the hip or knee**.
-   - Baseline requirement: **3-day mean pain score of ≥5** on an **11-point scale (0–10)**.
-   - Patients could continue **stable pre-existing non-opioid analgesic therapy** (83% did so).
-   - Patients requiring rescue analgesics other than the study drug were **discontinued for lack of efficacy**.
-No additional details outside the provided context are included. Let me know if you'd like further clarification!</t>
+          <t>Based on the context, the answer is:
+The dosing schedule and dosage of NUCYNTA™ administered in the study focusing on end-stage degenerative joint disease was 25 mg followed by 50 mg every 6 hours as needed. The conditions for patients to be included in the study were not specified in the provided context.</t>
         </is>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>The agent provided the dosing schedule and dosage of NUCYNTA™ administered in the study incorrectly. It should have been 50 mg for the first day, followed by 75 mg for the remaining nine days. Additionally, the agent did not mention the correct frequency of administration.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2708,13 +2641,13 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Based on the context provided, here are the details for the Ivermectin product:
-**Color**: WHITE (off-white/tan)  
-**Shape**: Not specified in the context  
-**Size**: Not specified in the context  
-**Flavor**: Not specified in the context  
-**Imprint Code**: Not specified in the context  
-The context does not provide information on shape, size, flavor, or imprint code for this product. Let me know if you'd like details on any other product mentioned in the documents.</t>
+          <t>Based on the provided context, I found a specific document that mentions the product characteristics.
+The document is about "Albertsons Signature Care Pain Relief Patch with 4% Lidocaine".
+According to this document, the product has the following characteristics:
+* Color: Not specified
+* Shape: RECTANGLE
+* Size: Not specified
+As for the flavor and imprint code, the document does not mention any specific information regarding these aspects.</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -2722,7 +2655,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>The agent correctly stated that the context did not provide information on shape, size, flavor, or imprint code for the product, but it should have mentioned that the product is oval in shape and has a size of 17mm.</t>
+          <t>The agent did not provide the correct color, shape, and size of the product mentioned in the document, and did not mention the flavor and imprint code associated with it.</t>
         </is>
       </c>
     </row>
@@ -2808,25 +2741,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following precautions should be taken when administering lisinopril to patients with impaired renal function:  
-1. **Close Medical Supervision**: Therapy should be started under very close medical supervision due to the potential fall in blood pressure. Patients should be monitored closely for the first two weeks of treatment and whenever the dose of lisinopril or a diuretic is increased.  
-2. **Monitoring for Renal Function Decline**: Patients with renal impairment are at risk of oliguria, progressive azotemia, acute renal failure, and even death. Regular monitoring for changes in renal function is essential, especially in those with pre-existing kidney disease.  
-3. **Avoid Excessive Blood Pressure Reduction**: Patients with ischemic heart or cerebrovascular disease should be cautious, as an excessive fall in blood pressure could lead to serious complications.  
-4. **Adjustments Based on Response**: If blood urea nitrogen (BUN) or serum creatinine increases (even minor and transient elevations), dosage reduction or discontinuation of lisinopril and/or diuretics may be required.  
-5. **Avoid Combined Use of RAS Inhibitors**: When lisinopril is used alongside other renin-angiotensin system (RAS) inhibitors (e.g., losartan), there is an increased risk of hyperkalemia and acute kidney injury without additional clinical benefit.  
-6. **Diuretic Management**: If patients are already on diuretics, symptomatic hypotension may occur after the first dose of lisinopril. The diuretic should be discontinued for 2–3 days before starting lisinopril if possible, and blood pressure should be closely monitored.  
-These precautions help mitigate the risks of worsening renal function, hypotension, and electrolyte imbalances in patients with renal impairment.  
-(Source: Context from "Lisinopril and Hydrochlorothiazide Tablets, USPRx Only" documents.)</t>
+          <t>Based on the provided context, the specific precautions that should be taken into account when administering lisinopril to patients with impaired renal function are:
+* Monitor patients with impaired renal function for changes in renal function, as decreased glomerular filtration rate can increase peak and trough lisinopril levels, time to peak concentration, and time to attain steady state.
+* Be aware of the risk of oliguria, progressive azotemia, acute renal failure, and death associated with angiotensin-converting enzyme inhibitors like lisinopril in patients with impaired renal function.
+* Adjust dosage or discontinue treatment if necessary, as the elimination half-life is longer in patients with more severe impairment.
+Note that these precautions are based on the context provided, which does not explicitly mention sacubitril (a neprilysin inhibitor), but it is generally recommended to monitor renal function and adjust dosing accordingly when using ACE inhibitors like lisinopril.</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>The agent provided a detailed list of precautions when administering lisinopril to patients with impaired renal function, but it did not mention the specific risks associated with severe congestive heart failure and unilateral or bilateral renal artery stenosis, as well as the need for monitoring renal function and potential dosage adjustments.</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2924,27 +2849,15 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Based on the provided context, here's the specific information about tizanidine's withdrawal adverse reactions and precautions:
-### **Withdrawal Adverse Reactions**:
-- Sudden withdrawal of tizanidine (especially after prolonged high-dose use or with concurrent narcotics) can cause:  
-  - Hypertension (high blood pressure)  
-  - Tachycardia (rapid heart rate)  
-  - Hypertonia (increased muscle tone)  
-  - Tremor  
-  - Anxiety  
-  - Transient signs (increased locomotion, body twitching, aversive behavior) observed in animal studies at doses &gt;35 times the human maximum dose.
-### **Precautions to Minimize Risk**:
-1. **Slow Tapering**:  
-   - The dose should be decreased *gradually* (not abruptly) when discontinuing therapy.  
-   - For patients on high doses long-term, reduce individual doses rather than frequency.  
-2. **Renal Impairment Caution**:  
-   - Patients with renal insufficiency (creatinine clearance &lt;25 mL/min) must be monitored closely due to slower clearance (~50% reduction).  
-3. **Avoid Narcotics Concomitantly**:  
-   - Withdrawal symptoms are more severe with concurrent narcotics use.  
-4. **Monitor for Overdose Indicators**:  
-   - Watch for worsening dry mouth, somnolence, weakness, or dizziness, which may signal impending withdrawal or overdose.  
-**Source**: Sections on *Withdrawal Adverse Reactions* and *Dependence* in the tizanidine prescribing context (docs 86/47).  
-Let me know if you need further clarification!</t>
+          <t>According to the context, the specific withdrawal adverse reactions associated with tizanidine are:
+* Hypertension
+* Tachycardia
+* Hypertonia
+* Tremor
+* Anxiety
+To minimize the risk of these reactions, especially for patients on high doses for an extended period or concurrently using narcotics, it is recommended to:
+* Decrease the dose slowly when therapy needs to be discontinued.
+This information can be found in section 9.3 Dependence of the provided text.</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -2952,7 +2865,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>The agent provided a detailed list of withdrawal adverse reactions and precautions for tizanidine, while the reference answer focused on rebound hypertension, tachycardia, and hypertonia as the main withdrawal adverse reactions.</t>
+          <t>The agent provided additional withdrawal adverse reactions associated with tizanidine that were not mentioned in the reference answer, and did not include rebound hypertension. The agent should have mentioned rebound hypertension and provided a more concise answer.</t>
         </is>
       </c>
     </row>
@@ -3148,18 +3061,9 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The active ingredient in the tizanidine hydrochloride capsules is **TIZANIDINE HYDROCHLORIDE**, with the following strengths available:  
-- **2 mg** (equivalent to tizanidine base)  
-- **4 mg** (equivalent to tizanidine base)  
-- **6 mg** (equivalent to tizanidine base)  
-These capsules contain the following **inactive ingredients**:  
-- MICROCRYSTALLINE CELLULOSE 101  
-- LACTOSE MONOHYDRATE  
-- HYPROMELLOSE, UNSPECIFIED  
-- SILICON DIOXIDE  
-- CROSCARMELLOSE SODIUM  
-- STEARIC ACID  
-Each strength corresponds to a specific capsule size and labeling for identification. Let me know if you need further details!</t>
+          <t>Based on the given context, the active ingredient is TIZANIDINE HYDROCHLORIDE, and its respective strengths are:
+* 2 mg
+* 4 mg</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -3167,7 +3071,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>The agent provided additional strengths (2 mg) and did not mention the specific strengths of 4 mg and 6 mg as in the reference answer.</t>
+          <t>The agent correctly identified Tizanidine Hydrochloride as the active ingredient, but incorrectly stated the strengths as 2 mg and 4 mg instead of 4 mg and 6 mg.</t>
         </is>
       </c>
     </row>
